--- a/Phase - 2/SSD/Anchor Boxes.xlsx
+++ b/Phase - 2/SSD/Anchor Boxes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6yuv\Documents\Meetup2019_local\Image Segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6yuv\Documents\meetup-intuition-to-implementation\Phase - 2\SSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13C5A8-02AA-4BAD-BB7D-2526F2EFA763}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B6A6F-81FD-4DBB-9541-D16320EECDCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12EF42DB-FC12-45F1-9772-CEF73FC27D47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12EF42DB-FC12-45F1-9772-CEF73FC27D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
-    <sheet name="Assigning labels to anchor box" sheetId="1" r:id="rId2"/>
-    <sheet name="IOU(Jaccard Index)" sheetId="3" r:id="rId3"/>
+    <sheet name="NMS" sheetId="4" r:id="rId2"/>
+    <sheet name="Assigning labels to anchor box" sheetId="1" r:id="rId3"/>
+    <sheet name="IOU(Jaccard Index)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
-  <si>
-    <t>In one image</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
   <si>
     <t>Anchor BOX</t>
   </si>
@@ -317,129 +315,168 @@
     <t>Predicted category</t>
   </si>
   <si>
-    <t>Model calculates the predicted probability for each cateogry denoted by confidence level of a bounding box.In case of background the category is 0.</t>
-  </si>
-  <si>
-    <t>Sort the prediction bounding boxes with predicted categories other than background by confidence level from high to low, and obtain the list  L
-For each category:
+    <t>Filter predicted bounding boxes(Optional step)</t>
+  </si>
+  <si>
+    <t>We can remove prediction bounding boxes with lower confidence levels before performing NMS, thereby reducing the amount of computation for NMS</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>dimension(x_min,y_min,x_max,y_max)</t>
+  </si>
+  <si>
+    <t>Box3</t>
+  </si>
+  <si>
+    <t>Box4</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>0,0,3,4</t>
+  </si>
+  <si>
+    <t>2,0,5,4</t>
+  </si>
+  <si>
+    <t>1,3,3,6</t>
+  </si>
+  <si>
+    <t>1,0,2,2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>lower_bound(max)</t>
+  </si>
+  <si>
+    <t>upper_bound(min)</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>intersection_area</t>
+  </si>
+  <si>
+    <t>intersection_length(upper_bound-lower_bound)</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box1
+</t>
+  </si>
+  <si>
+    <t>Box2</t>
+  </si>
+  <si>
+    <t>Jaccard Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:Column AB to AG is calculated based on keeping Box1 as reference box </t>
+  </si>
+  <si>
+    <t>Things to do:</t>
+  </si>
+  <si>
+    <t>Height Offset</t>
+  </si>
+  <si>
+    <t>Cx Offset</t>
+  </si>
+  <si>
+    <t>Cy Offset</t>
+  </si>
+  <si>
+    <t>Width offset</t>
+  </si>
+  <si>
+    <t>Index(1,1) ,Value=(IOU)</t>
+  </si>
+  <si>
+    <t>We proceed until all elements in  all the columns column in the matrix  X  are discarded. At this time, we have assigned a ground-truth bounding box to each of the  nb  anchor boxe</t>
+  </si>
+  <si>
+    <t>A the time of Assigning labels to anchor boxes for Smooth L1 loss</t>
+  </si>
+  <si>
+    <t>Model calculates the predicted probability for each anchor box denoted by confidence level for all classes.</t>
+  </si>
+  <si>
+    <t>For each category (except background):
+1.Sort the predicted confidence level from high to low, and obtain the list  L
 1.Select the prediction bounding box say B1  with highest confidence level  from  L  as a baseline and remove all non-benchmark prediction bounding boxes with an IoU with  B1  greater than a certain threshold from  L.The threshold here is a preset hyper-parameter.
 2.Repeat this process until all prediction bounding boxes in  L  have been used as a baseline
 3.By this time, the IoU of any pair of prediction bounding boxes in  L  is less than the threshold. Finally, output all prediction bounding boxes in the list  L .</t>
   </si>
   <si>
-    <t>Filter predicted bounding boxes(Optional step)</t>
-  </si>
-  <si>
-    <t>We can remove prediction bounding boxes with lower confidence levels before performing NMS, thereby reducing the amount of computation for NMS</t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>breadth</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>dimension(x_min,y_min,x_max,y_max)</t>
-  </si>
-  <si>
-    <t>Box3</t>
-  </si>
-  <si>
-    <t>Box4</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>0,0,3,4</t>
-  </si>
-  <si>
-    <t>2,0,5,4</t>
-  </si>
-  <si>
-    <t>1,3,3,6</t>
-  </si>
-  <si>
-    <t>1,0,2,2</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>lower_bound(max)</t>
-  </si>
-  <si>
-    <t>upper_bound(min)</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>intersection_area</t>
-  </si>
-  <si>
-    <t>intersection_length(upper_bound-lower_bound)</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Boxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box1
-</t>
-  </si>
-  <si>
-    <t>Box2</t>
-  </si>
-  <si>
-    <t>Jaccard Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note:Column AB to AG is calculated based on keeping Box1 as reference box </t>
-  </si>
-  <si>
-    <t>Things to do:</t>
-  </si>
-  <si>
-    <t>Height Offset</t>
-  </si>
-  <si>
-    <t>Cx Offset</t>
-  </si>
-  <si>
-    <t>Cy Offset</t>
-  </si>
-  <si>
-    <t>Width offset</t>
-  </si>
-  <si>
-    <t>Index(1,1) ,Value=(IOU)</t>
-  </si>
-  <si>
-    <t>We proceed until all elements in  all the columns column in the matrix  X  are discarded. At this time, we have assigned a ground-truth bounding box to each of the  nb  anchor boxe</t>
+    <t>Predicted Detected Boxes</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Supress</t>
+  </si>
+  <si>
+    <t>Supress(Iteration 0)</t>
+  </si>
+  <si>
+    <t>Supress(Iteration 1)</t>
+  </si>
+  <si>
+    <t>Update(Supress 1)</t>
+  </si>
+  <si>
+    <t>Mask after threshold</t>
+  </si>
+  <si>
+    <t>Supress(Iteration 2)</t>
+  </si>
+  <si>
+    <t>Update(Supress 2)</t>
   </si>
 </sst>
 </file>
@@ -473,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,8 +565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -632,12 +675,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -703,6 +755,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,15 +770,29 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1372,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E6355-6B4F-4C1C-82DD-9C36A4EBE5D4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,117 +1453,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="C7" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1507,12 +1576,604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03702B21-9FC4-4F50-B09F-A2C9BB9251EA}">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2">
+        <v>0.45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4">
+        <f>IF(B3&gt;$L$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:V4" si="0">IF(C3&gt;$L$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5">
+        <f>MAX(M3,M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:V5" si="1">MAX(N3,N4)</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="43">
+        <v>0</v>
+      </c>
+      <c r="N6" s="41">
+        <f>N5</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" ref="O6:V6" si="2">O5</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <f>IF(B4&gt;=L2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:V7" si="3">IF(C4&gt;=M2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8">
+        <f>MAX(M6,M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:V8" si="4">MAX(N6,N7)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>O8</f>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:V9" si="5">P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:XFD12">
+    <cfRule type="expression" priority="1">
+      <formula>$A$2:$K$12&gt;0.45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B87471-3338-4DA5-8B8F-65D52620A718}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1525,14 +2186,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1542,82 +2208,82 @@
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="9"/>
@@ -1627,76 +2293,76 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="10"/>
       <c r="R6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="10"/>
@@ -1719,59 +2385,59 @@
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
@@ -1781,145 +2447,146 @@
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B14:O14"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="B18:O18"/>
@@ -1935,7 +2602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497161F-1138-4A7D-B543-BF08CAEC7D30}">
   <dimension ref="V3:AG13"/>
   <sheetViews>
@@ -1972,51 +2639,51 @@
     </row>
     <row r="4" spans="22:33" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V4" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG4" s="31" t="s">
         <v>124</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC4" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG4" s="31" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="22:33" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V5" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="33">
         <v>3</v>
@@ -2029,33 +2696,33 @@
         <v>12</v>
       </c>
       <c r="AB5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AC5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AF5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AG5" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="22:33" ht="21" x14ac:dyDescent="0.35">
       <c r="V6" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X6" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="33">
         <v>3</v>
@@ -2068,13 +2735,13 @@
         <v>12</v>
       </c>
       <c r="AB6" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AC6" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" s="33">
         <v>4</v>
@@ -2090,13 +2757,13 @@
     </row>
     <row r="7" spans="22:33" ht="21" x14ac:dyDescent="0.35">
       <c r="V7" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X7" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="33">
         <v>2</v>
@@ -2109,13 +2776,13 @@
         <v>6</v>
       </c>
       <c r="AB7" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC7" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="33">
         <v>2</v>
@@ -2131,13 +2798,13 @@
     </row>
     <row r="8" spans="22:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V8" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="X8" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="33">
         <v>1</v>
@@ -2150,13 +2817,13 @@
         <v>2</v>
       </c>
       <c r="AB8" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" s="33" t="s">
-        <v>120</v>
-      </c>
       <c r="AD8" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE8" s="33">
         <v>2</v>
@@ -2199,26 +2866,26 @@
       <c r="AG10" s="30"/>
     </row>
     <row r="12" spans="22:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V12" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
+      <c r="V12" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" spans="22:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Phase - 2/SSD/Anchor Boxes.xlsx
+++ b/Phase - 2/SSD/Anchor Boxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6yuv\Documents\meetup-intuition-to-implementation\Phase - 2\SSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B6A6F-81FD-4DBB-9541-D16320EECDCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37751B06-13A6-4F60-AB42-A1A7DA5949CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{12EF42DB-FC12-45F1-9772-CEF73FC27D47}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
   <si>
     <t>Anchor BOX</t>
   </si>
@@ -473,10 +473,16 @@
     <t>Mask after threshold</t>
   </si>
   <si>
-    <t>Supress(Iteration 2)</t>
-  </si>
-  <si>
     <t>Update(Supress 2)</t>
+  </si>
+  <si>
+    <t>Leave B2(Iteration 2)</t>
+  </si>
+  <si>
+    <t>Leave B3 (Iteration 3</t>
+  </si>
+  <si>
+    <t>Supress(Iteration 4)</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -684,6 +690,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -761,6 +780,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -770,29 +792,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1577,27 +1585,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03702B21-9FC4-4F50-B09F-A2C9BB9251EA}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1626,44 +1644,45 @@
       <c r="J2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="41"/>
+      <c r="M2" s="1">
         <v>0.45</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1694,15 +1713,13 @@
       <c r="J3" s="1">
         <v>0.2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="41">
         <v>0.1</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
       <c r="N3" s="5">
         <v>0</v>
       </c>
@@ -1730,8 +1747,11 @@
       <c r="V3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1762,54 +1782,55 @@
       <c r="J4" s="1">
         <v>0.45</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="41">
         <v>0.6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="41"/>
+      <c r="M4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M4">
-        <f>IF(B3&gt;$L$2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:V4" si="0">IF(C3&gt;$L$2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N4" s="1">
+        <f>IF(B3&gt;$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <f>IF(C3&gt;$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <f>IF(D3&gt;$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>IF(E3&gt;$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <f>IF(F3&gt;$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f>IF(G3&gt;$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <f>IF(H3&gt;$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <f>IF(I3&gt;$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f>IF(J3&gt;$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f>IF(K3&gt;$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1824,111 +1845,131 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M5">
-        <f>MAX(M3,M4)</f>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:V5" si="1">MAX(N3,N4)</f>
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N5" s="1">
+        <f>MAX(N3,N4)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:W5" si="0">MAX(O3,O4)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="42" t="s">
+      <c r="F6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="43">
-        <v>0</v>
-      </c>
-      <c r="N6" s="41">
-        <f>N5</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="41">
-        <f t="shared" ref="O6:V6" si="2">O5</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N6" s="42">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f>O5</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" ref="P6:W6" si="1">P5</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1943,52 +1984,53 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7">
-        <f>IF(B4&gt;=L2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:V7" si="3">IF(C4&gt;=M2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="1">
+        <f>N6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:W9" si="2">O6</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2003,52 +2045,53 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8">
-        <f>MAX(M6,M7)</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:V8" si="4">MAX(N6,N7)</f>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" s="1">
+        <f>N7</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
@@ -2063,51 +2106,53 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="43">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>O8</f>
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ref="P9:V9" si="5">P8</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="1">
+        <f>N8</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
@@ -2122,9 +2167,53 @@
         <v>1</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="1">
+        <f>IF(B6&gt;=$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <f>IF(C6&gt;=$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>IF(D6&gt;=$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>IF(E6&gt;=$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <f>IF(F6&gt;=$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <f>IF(G6&gt;=$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>IF(H6&gt;=$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <f>IF(I6&gt;=$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <f>IF(J6&gt;=$M$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f>IF(K6&gt;=$M$2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
@@ -2139,9 +2228,52 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MAX(N9,N10)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:W11" si="3">MAX(O9,O10)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -2157,6 +2289,7 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
+      <c r="L12" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD12">
@@ -2186,14 +2319,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2462,127 +2595,127 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2866,26 +2999,26 @@
       <c r="AG10" s="30"/>
     </row>
     <row r="12" spans="22:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V12" s="39" t="s">
+      <c r="V12" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
     </row>
     <row r="13" spans="22:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
